--- a/biology/Botanique/Paul_Dietrich_Giseke/Paul_Dietrich_Giseke.xlsx
+++ b/biology/Botanique/Paul_Dietrich_Giseke/Paul_Dietrich_Giseke.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Dietrich Giseke est un médecin et un botaniste allemand, né le 8 décembre 1741 à Hambourg et mort le 26 avril 1796 dans cette même ville.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il commence à faire ses études à l’Akademische Gymnasium de Hambourg avant de partir étudier la médecine et la botanique à l’université de Göttingen à partir de 1764. En 1767, il entreprend plusieurs voyages d’études qui le conduisent en France et en Suède. Il se lie d’amitié avec Carl von Linné (1707-1778). Giseke joue un grand rôle dans l’introduction de la méthode linnéenne en Allemagne.
 De retour à Hambourg, il commence à exercer la médecine puis devient professeur de physique et de poésie, le 12 décembre 1771, dans son école, l’Akademische Gymnasium. À partir de 1784, il devient le second bibliothécaire de la ville puis le premier en 1794. En 1798, il admis post mortem à l'Académie allemande des sciences Leopoldina.
